--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3444188.446443413</v>
+        <v>3552830.607746225</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815105.347837159</v>
+        <v>7820598.993825576</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8165095851522483</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>370.4327834393865</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.33415019398301</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>174.9220752209445</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>64.7373385164932</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>43.13251517495361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.1905381333742</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>26.89799775485576</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>59.42500558273967</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>77.71258368364039</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.048941435907472</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>207.8772243262123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>136.7579938798621</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.84205284513764</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.19827945150488</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>30.9719158638759</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>194.5925645878126</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>3.006892987834117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>74.4191768313308</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>33.55293486399886</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>65.56423921895201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>129.7194509233187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>88.4218355306474</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>40.96105405076429</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.52295781333289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>126.3436347319666</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>29.67382008037395</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3949,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>102.3739644559489</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.85677025083604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>22.10695458833866</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>80.5697888787481</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,13 +4333,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2561.514571243436</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2307.933510507616</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.870623164045</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.101967893931</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1250.636209632851</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.4968776570395</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297105</v>
+        <v>870.329241545892</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4509,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4521,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485143</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="W4" t="n">
-        <v>535.7199774115536</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="X4" t="n">
-        <v>307.7304265135363</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.93784737000615</v>
+        <v>937.5665200750353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>956.3723032820419</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>587.4097863416303</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>587.4097863416303</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>201.621533743386</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>194.6760329941825</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>183.0116867588755</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4571,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2394.071923780208</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2394.071923780208</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2394.071923780208</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.071923780208</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.932591804396</v>
+        <v>1342.972143346164</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4655,16 @@
         <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.0883979303312</v>
+        <v>653.7587006051583</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0883979303312</v>
+        <v>484.8225176772514</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>334.7058782649157</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>186.7927846825226</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1609.276425372623</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1386.297944567358</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.179607071196</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>842.4951188653092</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>553.0779488283486</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X7" t="n">
-        <v>325.0883979303312</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.0883979303312</v>
+        <v>835.407165435398</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.120246683345</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.157729742933</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>1262.892031136183</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>877.1037785379385</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>466.117873748331</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X8" t="n">
-        <v>2766.859418723278</v>
+        <v>1591.264585115892</v>
       </c>
       <c r="Y8" t="n">
-        <v>2376.720086747467</v>
+        <v>1201.12525314008</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>299.2648838844859</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>593.9684409159577</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751778</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648285</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>384.3315924698002</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="C10" t="n">
-        <v>384.3315924698002</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1630.336078220045</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1433.707330379907</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1433.707330379907</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1144.588992883744</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1144.588992883744</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.762187341587</v>
+        <v>855.1718228467838</v>
       </c>
       <c r="X10" t="n">
-        <v>786.77263644357</v>
+        <v>855.1718228467838</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.9800573000399</v>
+        <v>634.3792437032537</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3173.601046153952</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3455.19996817779</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3234.40738903426</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5841,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1780.902934462213</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1526.218446256326</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>2726.914133601549</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>3278.063798229817</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
@@ -6215,7 +6217,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6451,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2380.736579318693</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.1760994014371</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C34" t="n">
-        <v>2876.594459243706</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729772</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>135.191465119451</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>3709.884456383676</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703542</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560012</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4311299055728</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7497,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232838</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7597,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.2628027535235</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>869.9745311434712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>719.8578917311354</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>571.9447981487423</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>425.0548506508319</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>257.8587513657118</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>116.1469202079099</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7848,10 @@
         <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>15.64270034434981</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>35.91627445172469</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883063123</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>255.8421700460941</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.9556134883075913</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015485</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>149.4264805093821</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>91.59190980143154</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.6337007304324</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>136.2749052347519</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>91.59190980143151</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>74.19629618688155</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.4620467826926</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52737017530916</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>56.99921249228385</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>179.1866975757043</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>20.09032791460257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>187.7316302469143</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.15888173022687</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>683458.8997881572</v>
+        <v>689400.827289228</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
@@ -26335,25 +26337,25 @@
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>4.505232968297386e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
-      </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707432</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229269</v>
+        <v>-580135.6457229268</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529925</v>
+        <v>534616.1378529929</v>
       </c>
       <c r="D6" t="n">
-        <v>372818.0968546728</v>
+        <v>534616.1378529929</v>
       </c>
       <c r="E6" t="n">
-        <v>313178.1885852857</v>
+        <v>131105.2087680951</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926408</v>
+        <v>638590.6503926407</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.650392641</v>
+        <v>638590.6503926407</v>
       </c>
       <c r="H6" t="n">
         <v>638590.6503926408</v>
@@ -26543,25 +26545,25 @@
         <v>638590.6503926408</v>
       </c>
       <c r="J6" t="n">
-        <v>470985.4725826583</v>
+        <v>470985.472582658</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.6503926408</v>
+        <v>638590.6503926406</v>
       </c>
       <c r="L6" t="n">
-        <v>590296.6803844501</v>
+        <v>638590.6503926405</v>
       </c>
       <c r="M6" t="n">
-        <v>553535.6224571287</v>
+        <v>505983.3566637138</v>
       </c>
       <c r="N6" t="n">
         <v>638590.6503926408</v>
       </c>
       <c r="O6" t="n">
+        <v>638590.6503926406</v>
+      </c>
+      <c r="P6" t="n">
         <v>638590.650392641</v>
-      </c>
-      <c r="P6" t="n">
-        <v>638590.6503926407</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.8416753950815</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.80515521666706</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.4978299879543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.21556810288351</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.2812140459122</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>207.9127349535084</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>11.230509889557</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>167.7644626068817</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>351.4967200707138</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>292.0185169948286</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>95.50863098366615</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>78.64577401037872</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29755,16 +29757,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.237807098199294e-12</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>698.8508668798645</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>718.583268200831</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33667,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>386.7287743289961</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
+        <v>313.3230609822</v>
+      </c>
+      <c r="M3" t="n">
+        <v>366.9313322820405</v>
+      </c>
+      <c r="N3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
-      <c r="N3" t="n">
-        <v>427.1133740445987</v>
-      </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844294</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>505.5216991696265</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>187.5431097317924</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>556.7168329578461</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174977</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>244.1325298845517</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3552830.607746225</v>
+        <v>3548693.450496075</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>275.9221926868009</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.4327834393865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>51.27659234081855</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>174.9220752209445</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>49.35425813889837</v>
       </c>
       <c r="H5" t="n">
-        <v>64.7373385164932</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>17.5316469307803</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>134.1905381333742</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>134.5736442325474</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>77.71258368364039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.048941435907472</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>136.7579938798621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>54.84205284513764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>194.5925645878126</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>40.6225301034174</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>74.4191768313308</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>33.55293486399886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>88.4218355306474</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>29.67382008037395</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>102.3739644559489</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1497.163022664619</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1111.374770066375</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>700.3888652767675</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1855.42872127137</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.5665200750353</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>768.6303371471284</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V4" t="n">
-        <v>937.5665200750353</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W4" t="n">
-        <v>937.5665200750353</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>937.5665200750353</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>937.5665200750353</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.3723032820419</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C5" t="n">
-        <v>587.4097863416303</v>
+        <v>918.4726736852001</v>
       </c>
       <c r="D5" t="n">
-        <v>587.4097863416303</v>
+        <v>560.2069750784497</v>
       </c>
       <c r="E5" t="n">
-        <v>201.621533743386</v>
+        <v>174.4187224802054</v>
       </c>
       <c r="F5" t="n">
-        <v>194.6760329941825</v>
+        <v>167.473221731002</v>
       </c>
       <c r="G5" t="n">
-        <v>183.0116867588755</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.111475321975</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.972143346164</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1946.556931114679</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653.7587006051583</v>
+        <v>385.8047973518186</v>
       </c>
       <c r="C7" t="n">
-        <v>484.8225176772514</v>
+        <v>216.8686144239117</v>
       </c>
       <c r="D7" t="n">
-        <v>334.7058782649157</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>186.7927846825226</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1056.199744578928</v>
+        <v>896.0145465323093</v>
       </c>
       <c r="W7" t="n">
-        <v>1056.199744578928</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="X7" t="n">
-        <v>1056.199744578928</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.407165435398</v>
+        <v>385.8047973518186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1677.574522601424</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1308.612005661013</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>950.3463070542623</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>564.558054456018</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>557.6125537068145</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005981</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392296</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.264585115892</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>2064.174362665546</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844859</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159577</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751778</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472123</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648285</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.7307788730139</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1630.336078220045</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1433.707330379907</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.707330379907</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1144.588992883744</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1144.588992883744</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>855.1718228467838</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>855.1718228467838</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>634.3792437032537</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,28 +5120,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2022.176527098168</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.492038892281</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.07486885532</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5421,13 +5421,13 @@
         <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1780.902934462213</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1526.218446256326</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6028,13 +6028,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.58852738579</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.914133601549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229817</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1936.428221820188</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>854.7852236114967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>734.6461798836013</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>584.5295404712656</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>436.6164468888725</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,25 +6715,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856862</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577793</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>639.9526724577793</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>492.0395788753862</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772529</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2167.088989850826</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.700204330166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.624977674364</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>15.64270034434981</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>255.8421700460941</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883075913</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015485</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.277957053354437e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>91.59190980143154</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>86.4655746247242</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>91.59190980143151</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>74.19629618688155</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>56.99921249228385</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>115.0314858713394</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943782</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="M2" t="n">
         <v>746610.604713255</v>
@@ -26352,10 +26352,10 @@
         <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.505232968297386e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
@@ -26432,31 +26432,31 @@
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707432</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229268</v>
+        <v>-580135.6457229266</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529929</v>
+        <v>534616.1378529926</v>
       </c>
       <c r="D6" t="n">
-        <v>534616.1378529929</v>
+        <v>534616.1378529933</v>
       </c>
       <c r="E6" t="n">
-        <v>131105.2087680951</v>
+        <v>130757.8295137381</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926407</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.6503926407</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="J6" t="n">
-        <v>470985.472582658</v>
+        <v>470638.0933283015</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382837</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.6503926405</v>
+        <v>638243.2711382842</v>
       </c>
       <c r="M6" t="n">
-        <v>505983.3566637138</v>
+        <v>505635.9774093568</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382842</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.650392641</v>
+        <v>638243.2711382837</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>135.6255100861531</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.80515521666706</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.4721036563934</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>77.21556810288351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>362.1934446340556</v>
       </c>
       <c r="H5" t="n">
-        <v>236.2812140459122</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>131.083826087432</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11.230509889557</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.9740585404065</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>292.0185169948286</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>95.50863098366615</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29757,16 +29757,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29802,19 +29802,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.237807098199294e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>698.8508668798645</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>718.583268200831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,13 +33736,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>386.7287743289961</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>424.0909547148531</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>313.3230609822</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>505.5216991696265</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317924</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>577.7882979947782</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>556.7168329578461</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>244.1325298845517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>281.4947102704086</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3548693.450496075</v>
+        <v>3550453.98079886</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>275.9221926868009</v>
+        <v>200.5437627035893</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>51.27659234081882</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>51.27659234081855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>78.17547405372405</v>
       </c>
       <c r="G5" t="n">
-        <v>49.35425813889837</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5316469307803</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>134.5736442325474</v>
+        <v>378.7173554971571</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>23.94563726208645</v>
+        <v>23.94563726208624</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>79.05856366754465</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.42872127137</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="C2" t="n">
-        <v>1855.42872127137</v>
+        <v>1004.815695798554</v>
       </c>
       <c r="D2" t="n">
-        <v>1497.163022664619</v>
+        <v>646.5499971918036</v>
       </c>
       <c r="E2" t="n">
-        <v>1111.374770066375</v>
+        <v>260.7617445935594</v>
       </c>
       <c r="F2" t="n">
-        <v>700.3888652767675</v>
+        <v>253.8162438443559</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1855.42872127137</v>
+        <v>1373.778212738966</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>551.6025748766954</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>716.897187706548</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>547.9610047786412</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>397.8443653663054</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>249.9312717839123</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>103.0413242860019</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1584.651582356498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>898.5456525367878</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852001</v>
+        <v>952.3038584792084</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784497</v>
+        <v>594.038159872458</v>
       </c>
       <c r="E5" t="n">
-        <v>174.4187224802054</v>
+        <v>208.2499072742137</v>
       </c>
       <c r="F5" t="n">
-        <v>167.473221731002</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,13 +4564,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.8047973518186</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>216.8686144239117</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323093</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>606.5973764953487</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>606.5973764953487</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.8047973518186</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1677.574522601424</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.612005661013</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D8" t="n">
-        <v>950.3463070542623</v>
+        <v>1130.582467248342</v>
       </c>
       <c r="E8" t="n">
-        <v>564.558054456018</v>
+        <v>744.794214650098</v>
       </c>
       <c r="F8" t="n">
-        <v>557.6125537068145</v>
+        <v>737.8487139008945</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>2064.174362665546</v>
+        <v>1857.810682795504</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4941,37 +4941,37 @@
         <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>837.0793422748033</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>686.9627028624675</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>539.0496092800744</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>392.159661782164</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1731970904428</v>
+        <v>224.1731970904426</v>
       </c>
       <c r="H10" t="n">
-        <v>75.43429895394902</v>
+        <v>75.4342989539488</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,19 +6229,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6791,7 +6791,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,19 +7019,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>255.842170046095</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.277957053354437e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>86.4655746247242</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943782</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244629</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132555</v>
@@ -26343,19 +26343,19 @@
         <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132557</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.726831625</v>
-      </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
-      </c>
-      <c r="D4" t="n">
-        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
@@ -26447,19 +26447,19 @@
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229266</v>
+        <v>-580135.6457229271</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529926</v>
+        <v>534616.1378529929</v>
       </c>
       <c r="D6" t="n">
-        <v>534616.1378529933</v>
+        <v>534616.1378529929</v>
       </c>
       <c r="E6" t="n">
-        <v>130757.8295137381</v>
+        <v>131070.4708426591</v>
       </c>
       <c r="F6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="G6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="H6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="I6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="J6" t="n">
-        <v>470638.0933283015</v>
+        <v>470950.7346572228</v>
       </c>
       <c r="K6" t="n">
-        <v>638243.2711382837</v>
+        <v>638555.912467205</v>
       </c>
       <c r="L6" t="n">
-        <v>638243.2711382842</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="M6" t="n">
-        <v>505635.9774093568</v>
+        <v>505948.6187382785</v>
       </c>
       <c r="N6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="O6" t="n">
-        <v>638243.2711382842</v>
+        <v>638555.9124672055</v>
       </c>
       <c r="P6" t="n">
-        <v>638243.2711382837</v>
+        <v>638555.9124672051</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>135.6255100861531</v>
+        <v>211.0039400693647</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>115.0300077039854</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>169.4721036563934</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>328.7005716879874</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>362.1934446340556</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>131.083826087432</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>276.9740585404065</v>
+        <v>32.8303472757969</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>80.85095794181413</v>
+        <v>80.85095794181434</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>442.4296662895798</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>577.7882979947782</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
